--- a/data/trans_orig/IP19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F24E9F-BBB8-44B1-9F4E-BCF0E81B4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD5B958-A5F1-4C8C-81C3-699CAC1F4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C10CE67-C3FF-4B7B-9733-98E262E7AD0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D495B87-8885-4340-BB6B-5572098B3FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="499">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>9,9%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>Dentista privado/particular</t>
@@ -101,28 +101,28 @@
     <t>64,45%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -140,28 +140,28 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -173,1354 +173,1369 @@
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2015 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>2,05%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>22,09%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>16,66%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430A5B88-CE19-46E3-A6DB-3218D9D36911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6238FBDF-368F-42B2-8649-EFDE278F0E35}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2418,10 +2433,10 @@
         <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2430,13 +2445,13 @@
         <v>4361</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2929,13 +2944,13 @@
         <v>9500</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2944,13 +2959,13 @@
         <v>8864</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2959,13 +2974,13 @@
         <v>18364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2995,13 @@
         <v>116382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2995,13 +3010,13 @@
         <v>110141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -3010,13 +3025,13 @@
         <v>226522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3087,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E439059-5DA2-4843-8EC7-8CB1F391F7AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA74630-D858-4D4D-914B-5CAECD614035}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3215,13 +3230,13 @@
         <v>429</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3230,13 +3245,13 @@
         <v>1407</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3248,10 +3263,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3281,13 @@
         <v>14806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3281,13 +3296,13 @@
         <v>20010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3296,13 +3311,13 @@
         <v>34816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3332,13 @@
         <v>654</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3332,13 +3347,13 @@
         <v>656</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3347,13 +3362,13 @@
         <v>1310</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3505,10 @@
         <v>178</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3502,13 +3517,13 @@
         <v>8979</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3538,13 @@
         <v>110408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3538,13 +3553,13 @@
         <v>103634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>309</v>
@@ -3553,13 +3568,13 @@
         <v>214043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3589,13 @@
         <v>7683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3589,13 +3604,13 @@
         <v>4263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3607,10 +3622,10 @@
         <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3640,13 @@
         <v>115733</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -3640,13 +3655,13 @@
         <v>109630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>322</v>
@@ -3655,13 +3670,13 @@
         <v>225363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3744,13 @@
         <v>625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3744,13 +3759,13 @@
         <v>1585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3759,13 +3774,13 @@
         <v>2210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3795,13 @@
         <v>46892</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -3795,13 +3810,13 @@
         <v>50402</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -3810,13 +3825,13 @@
         <v>97294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3846,13 @@
         <v>7723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3846,13 +3861,13 @@
         <v>2718</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3861,13 +3876,13 @@
         <v>10440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3897,13 @@
         <v>26885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3897,13 +3912,13 @@
         <v>31579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -3912,13 +3927,13 @@
         <v>58465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4001,13 @@
         <v>7297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4004,10 +4019,10 @@
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4016,13 +4031,13 @@
         <v>13025</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4052,13 @@
         <v>172107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -4052,13 +4067,13 @@
         <v>174046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>498</v>
@@ -4067,13 +4082,13 @@
         <v>346153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4103,13 @@
         <v>16060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4103,13 +4118,13 @@
         <v>7637</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4118,7 +4133,7 @@
         <v>23697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>262</v>
@@ -4231,7 +4246,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885852CE-28AF-4DAB-A568-846A75E6CE90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120D4F3-F183-4C98-91C4-6631B96E889E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4389,7 +4404,7 @@
         <v>617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -4407,10 +4422,10 @@
         <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4440,13 @@
         <v>21003</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4440,13 +4455,13 @@
         <v>8180</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4455,13 +4470,13 @@
         <v>29183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4497,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4634,10 +4649,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -4652,7 +4667,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4664,10 +4679,10 @@
         <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4697,13 @@
         <v>138899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -4697,13 +4712,13 @@
         <v>147686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -4712,13 +4727,13 @@
         <v>286585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4748,13 @@
         <v>2524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4748,13 +4763,13 @@
         <v>5110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4763,13 +4778,13 @@
         <v>7634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4799,13 @@
         <v>101747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>321</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>132</v>
@@ -4799,13 +4814,13 @@
         <v>90539</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>271</v>
@@ -4814,13 +4829,13 @@
         <v>192285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4903,13 @@
         <v>892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4903,13 +4918,13 @@
         <v>2078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4918,13 +4933,13 @@
         <v>2970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4954,13 @@
         <v>45907</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -4954,13 +4969,13 @@
         <v>54372</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M15" s="7">
         <v>140</v>
@@ -4969,13 +4984,13 @@
         <v>100279</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5005,13 @@
         <v>4538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5005,13 +5020,13 @@
         <v>10666</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5020,13 +5035,13 @@
         <v>15205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5056,13 @@
         <v>35082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -5056,13 +5071,13 @@
         <v>20112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -5071,13 +5086,13 @@
         <v>55195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5160,13 @@
         <v>7240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5160,13 +5175,13 @@
         <v>7707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5175,13 +5190,13 @@
         <v>14947</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5211,13 @@
         <v>205808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
@@ -5211,13 +5226,13 @@
         <v>210238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
@@ -5226,13 +5241,13 @@
         <v>416047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5262,13 @@
         <v>7062</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -5262,13 +5277,13 @@
         <v>15776</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -5277,13 +5292,13 @@
         <v>22838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5313,13 @@
         <v>143236</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -5313,13 +5328,13 @@
         <v>125479</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -5328,13 +5343,13 @@
         <v>268716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,7 +5405,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5409,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A120C187-EA74-45C7-99C7-F3923C052CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C6DDE-495E-4DF7-AEF5-EC9F3D3B3E62}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5426,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5539,7 +5554,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5548,13 +5563,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5563,13 +5578,13 @@
         <v>159</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5599,13 @@
         <v>17520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5599,13 +5614,13 @@
         <v>24619</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5614,13 +5629,13 @@
         <v>42139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,7 +5656,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5656,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5671,7 +5686,7 @@
         <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5701,13 @@
         <v>6909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5701,13 +5716,13 @@
         <v>4361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5716,13 +5731,13 @@
         <v>11270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5805,13 @@
         <v>900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5805,13 +5820,13 @@
         <v>1364</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5823,10 +5838,10 @@
         <v>112</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5856,13 @@
         <v>246417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>286</v>
@@ -5856,13 +5871,13 @@
         <v>214656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>579</v>
@@ -5871,13 +5886,13 @@
         <v>461074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5907,13 @@
         <v>1051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5907,13 +5922,13 @@
         <v>1276</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -5922,13 +5937,13 @@
         <v>2327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5958,13 @@
         <v>61824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -5958,13 +5973,13 @@
         <v>51994</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5973,13 +5988,13 @@
         <v>113818</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6068,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6062,13 +6077,13 @@
         <v>917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6077,13 +6092,13 @@
         <v>917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6113,13 @@
         <v>102391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H15" s="7">
         <v>116</v>
@@ -6113,13 +6128,13 @@
         <v>80658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M15" s="7">
         <v>250</v>
@@ -6128,13 +6143,13 @@
         <v>183049</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6164,13 @@
         <v>5124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6164,10 +6179,10 @@
         <v>3176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>457</v>
@@ -6179,13 +6194,13 @@
         <v>8300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6215,13 @@
         <v>22127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6215,13 +6230,13 @@
         <v>17684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -6230,13 +6245,13 @@
         <v>39811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6319,13 @@
         <v>900</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6319,13 +6334,13 @@
         <v>2441</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6337,7 +6352,7 @@
         <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>67</v>
@@ -6355,13 +6370,13 @@
         <v>366328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -6370,13 +6385,13 @@
         <v>319933</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>883</v>
@@ -6385,13 +6400,13 @@
         <v>686261</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6421,13 @@
         <v>6175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>481</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -6421,13 +6436,13 @@
         <v>4452</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -6436,13 +6451,13 @@
         <v>10627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>485</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6472,13 @@
         <v>90860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -6472,13 +6487,13 @@
         <v>74039</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -6487,13 +6502,13 @@
         <v>164899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,7 +6564,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD5B958-A5F1-4C8C-81C3-699CAC1F4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{177E0F51-BD42-4B27-8300-F5A3FFB4558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D495B87-8885-4340-BB6B-5572098B3FB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{348FB3C4-D12B-4586-8728-9750585EF9AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="502">
   <si>
     <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2007 (Tasa respuesta: 50,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,55 +74,55 @@
     <t>Otros</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>Dentista privado/particular</t>
   </si>
   <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -137,31 +137,31 @@
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
   </si>
   <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1372 +170,1381 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>58,65%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2016 (Tasa respuesta: 48,21%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el dentista que le atendió en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6238FBDF-368F-42B2-8649-EFDE278F0E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BCDDC0-E522-4504-9F06-C22EDF6150EA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2065,10 +2074,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2080,16 +2089,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2104,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2116,10 +2125,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>27644</v>
+        <v>32456</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2131,10 +2140,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>32456</v>
+        <v>27644</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2173,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2188,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2203,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>30</v>
@@ -2218,10 +2227,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>14381</v>
+        <v>13750</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2233,10 +2242,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>13750</v>
+        <v>14381</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2269,25 +2278,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7">
+        <v>46206</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>64</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>42891</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>69</v>
-      </c>
-      <c r="I8" s="7">
-        <v>46206</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2325,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>3940</v>
+        <v>3958</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -2340,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3958</v>
+        <v>3940</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -2361,10 +2370,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,34 +2382,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>214</v>
+      </c>
+      <c r="D10" s="7">
+        <v>143532</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>225</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>149276</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="7">
-        <v>214</v>
-      </c>
-      <c r="I10" s="7">
-        <v>143532</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
@@ -2409,13 +2418,13 @@
         <v>292807</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,34 +2433,34 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4361</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>3400</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4361</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2460,13 +2469,13 @@
         <v>7760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,34 +2484,34 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
+        <v>110</v>
+      </c>
+      <c r="D12" s="7">
+        <v>72479</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7">
         <v>132</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>86406</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="7">
-        <v>110</v>
-      </c>
-      <c r="I12" s="7">
-        <v>72479</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>242</v>
@@ -2511,13 +2520,13 @@
         <v>158885</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,25 +2535,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>337</v>
+      </c>
+      <c r="D13" s="7">
+        <v>224329</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
         <v>368</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>243021</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>337</v>
-      </c>
-      <c r="I13" s="7">
-        <v>224329</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -2573,7 +2582,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2600,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2615,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,34 +2639,34 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7">
+        <v>46533</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7">
         <v>73</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>49529</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="7">
-        <v>67</v>
-      </c>
-      <c r="I15" s="7">
-        <v>46533</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M15" s="7">
         <v>140</v>
@@ -2666,13 +2675,13 @@
         <v>96063</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,34 +2690,34 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4504</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4504</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2717,13 +2726,13 @@
         <v>10604</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,34 +2741,34 @@
         <v>31</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23912</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>15594</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23912</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -2768,13 +2777,13 @@
         <v>39506</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,25 +2792,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>108</v>
+      </c>
+      <c r="D18" s="7">
+        <v>74949</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7">
         <v>106</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>71223</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7">
-        <v>108</v>
-      </c>
-      <c r="I18" s="7">
-        <v>74949</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -2836,34 +2845,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3958</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="7">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4806</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3958</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2872,13 +2881,13 @@
         <v>8763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,34 +2896,34 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>330</v>
+      </c>
+      <c r="D20" s="7">
+        <v>222521</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="7">
         <v>339</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>226449</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H20" s="7">
-        <v>330</v>
-      </c>
-      <c r="I20" s="7">
-        <v>222521</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>669</v>
@@ -2923,13 +2932,13 @@
         <v>448969</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,31 +2950,31 @@
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>9500</v>
+        <v>8864</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>8864</v>
+        <v>9500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2974,13 +2983,13 @@
         <v>18364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,34 +2998,34 @@
         <v>31</v>
       </c>
       <c r="C22" s="7">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7">
+        <v>110141</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="7">
         <v>178</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>116382</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H22" s="7">
-        <v>164</v>
-      </c>
-      <c r="I22" s="7">
-        <v>110141</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -3025,13 +3034,13 @@
         <v>226522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,25 +3049,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>514</v>
+      </c>
+      <c r="D23" s="7">
+        <v>345484</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
         <v>538</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>357136</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="7">
-        <v>514</v>
-      </c>
-      <c r="I23" s="7">
-        <v>345484</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -3087,7 +3096,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA74630-D858-4D4D-914B-5CAECD614035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB9808B-292E-49BA-94C2-9768F451BF6D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3123,7 +3132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3224,34 +3233,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1407</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>429</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1407</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3260,13 +3269,13 @@
         <v>1836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,34 +3284,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20010</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14806</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20010</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3311,13 +3320,13 @@
         <v>34816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,31 +3338,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3362,13 +3371,13 @@
         <v>1310</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,34 +3386,34 @@
         <v>31</v>
       </c>
       <c r="C7" s="7">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25891</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="7">
         <v>36</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>26907</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H7" s="7">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7">
-        <v>25891</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -3413,13 +3422,13 @@
         <v>52798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,25 +3437,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>59</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>42795</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>69</v>
-      </c>
-      <c r="I8" s="7">
-        <v>47964</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -3481,34 +3490,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2735</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>6244</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2735</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3517,13 +3526,13 @@
         <v>8979</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,34 +3541,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>150</v>
+      </c>
+      <c r="D10" s="7">
+        <v>103634</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="7">
         <v>159</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>110408</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="7">
-        <v>150</v>
-      </c>
-      <c r="I10" s="7">
-        <v>103634</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>309</v>
@@ -3568,13 +3577,13 @@
         <v>214043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,34 +3592,34 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4263</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="7">
         <v>11</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>7683</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4263</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3625,7 +3634,7 @@
         <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,34 +3643,34 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
+        <v>155</v>
+      </c>
+      <c r="D12" s="7">
+        <v>109630</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115733</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H12" s="7">
-        <v>155</v>
-      </c>
-      <c r="I12" s="7">
-        <v>109630</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>322</v>
@@ -3670,13 +3679,13 @@
         <v>225363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,25 +3694,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>315</v>
+      </c>
+      <c r="D13" s="7">
+        <v>220263</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
         <v>346</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>240068</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>315</v>
-      </c>
-      <c r="I13" s="7">
-        <v>220263</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -3732,40 +3741,40 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1585</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>625</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1585</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3774,13 +3783,13 @@
         <v>2210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,34 +3798,34 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7">
+        <v>50402</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="7">
         <v>70</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>46892</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="7">
-        <v>69</v>
-      </c>
-      <c r="I15" s="7">
-        <v>50402</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -3825,13 +3834,13 @@
         <v>97294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,34 +3849,34 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2718</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>7723</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2718</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3876,13 +3885,13 @@
         <v>10440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,34 +3900,34 @@
         <v>31</v>
       </c>
       <c r="C17" s="7">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31579</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="7">
         <v>36</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26885</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31579</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -3927,13 +3936,13 @@
         <v>58465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,25 +3951,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>121</v>
+      </c>
+      <c r="D18" s="7">
+        <v>86284</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7">
         <v>118</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>82125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7">
-        <v>121</v>
-      </c>
-      <c r="I18" s="7">
-        <v>86284</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -3995,34 +4004,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5728</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="7">
         <v>11</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>7297</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5728</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -4031,13 +4040,13 @@
         <v>13025</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,34 +4055,34 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>248</v>
+      </c>
+      <c r="D20" s="7">
+        <v>174046</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7">
         <v>250</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>172107</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" s="7">
-        <v>248</v>
-      </c>
-      <c r="I20" s="7">
-        <v>174046</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>498</v>
@@ -4082,13 +4091,13 @@
         <v>346153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,34 +4106,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7637</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>23</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>16060</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7637</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4133,13 +4142,13 @@
         <v>23697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,34 +4157,34 @@
         <v>31</v>
       </c>
       <c r="C22" s="7">
+        <v>238</v>
+      </c>
+      <c r="D22" s="7">
+        <v>167100</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="7">
         <v>239</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>169525</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="7">
-        <v>238</v>
-      </c>
-      <c r="I22" s="7">
-        <v>167100</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>477</v>
@@ -4184,13 +4193,13 @@
         <v>336625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,25 +4208,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>505</v>
+      </c>
+      <c r="D23" s="7">
+        <v>354511</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
         <v>523</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>364989</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="7">
-        <v>505</v>
-      </c>
-      <c r="I23" s="7">
-        <v>354511</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -4246,7 +4255,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120D4F3-F183-4C98-91C4-6631B96E889E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2345B7-5E19-4D1D-8770-EF977BB541E1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4282,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4383,34 +4392,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>617</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1324</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>617</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4419,13 +4428,13 @@
         <v>1941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,34 +4443,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8180</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="7">
         <v>30</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>21003</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8180</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4470,13 +4479,13 @@
         <v>29183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4506,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4521,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,34 +4545,34 @@
         <v>31</v>
       </c>
       <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14828</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>6407</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14828</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4572,13 +4581,13 @@
         <v>21236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,25 +4596,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
+        <v>23625</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7">
         <v>28734</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23625</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -4640,34 +4649,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5012</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>5024</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5012</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4676,13 +4685,13 @@
         <v>10036</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,34 +4700,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>215</v>
+      </c>
+      <c r="D10" s="7">
+        <v>147686</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="7">
         <v>192</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>138899</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H10" s="7">
-        <v>215</v>
-      </c>
-      <c r="I10" s="7">
-        <v>147686</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -4727,13 +4736,13 @@
         <v>286585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,34 +4751,34 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5110</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>2524</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5110</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4778,13 +4787,13 @@
         <v>7634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,34 +4802,34 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
+        <v>132</v>
+      </c>
+      <c r="D12" s="7">
+        <v>90539</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="7">
         <v>139</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>101747</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="7">
-        <v>132</v>
-      </c>
-      <c r="I12" s="7">
-        <v>90539</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>271</v>
@@ -4829,13 +4838,13 @@
         <v>192285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,25 +4853,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>363</v>
+      </c>
+      <c r="D13" s="7">
+        <v>248347</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
         <v>342</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>248194</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>363</v>
-      </c>
-      <c r="I13" s="7">
-        <v>248347</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -4891,40 +4900,40 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2078</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>892</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2078</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4933,13 +4942,13 @@
         <v>2970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,34 +4957,34 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54372</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="7">
         <v>65</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>45907</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J15" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H15" s="7">
-        <v>75</v>
-      </c>
-      <c r="I15" s="7">
-        <v>54372</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M15" s="7">
         <v>140</v>
@@ -4984,13 +4993,13 @@
         <v>100279</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,34 +5008,34 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10666</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4538</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10666</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5035,13 +5044,13 @@
         <v>15205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,34 +5059,34 @@
         <v>31</v>
       </c>
       <c r="C17" s="7">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20112</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="7">
         <v>48</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>35082</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H17" s="7">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20112</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -5086,13 +5095,13 @@
         <v>55195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,25 +5110,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>123</v>
+      </c>
+      <c r="D18" s="7">
+        <v>87229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7">
         <v>121</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>86419</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7">
-        <v>123</v>
-      </c>
-      <c r="I18" s="7">
-        <v>87229</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -5154,34 +5163,34 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7707</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>7240</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7707</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5190,13 +5199,13 @@
         <v>14947</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,34 +5214,34 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>302</v>
+      </c>
+      <c r="D20" s="7">
+        <v>210238</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H20" s="7">
         <v>287</v>
       </c>
-      <c r="D20" s="7">
-        <v>205808</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>205809</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H20" s="7">
-        <v>302</v>
-      </c>
-      <c r="I20" s="7">
-        <v>210238</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
@@ -5241,13 +5250,13 @@
         <v>416047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,34 +5265,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7">
+        <v>15776</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="7">
         <v>11</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>7062</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="7">
-        <v>23</v>
-      </c>
-      <c r="I21" s="7">
-        <v>15776</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -5292,13 +5301,13 @@
         <v>22838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,34 +5316,34 @@
         <v>31</v>
       </c>
       <c r="C22" s="7">
+        <v>184</v>
+      </c>
+      <c r="D22" s="7">
+        <v>125479</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" s="7">
         <v>196</v>
       </c>
-      <c r="D22" s="7">
-        <v>143236</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>143237</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="7">
-        <v>184</v>
-      </c>
-      <c r="I22" s="7">
-        <v>125479</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -5343,13 +5352,13 @@
         <v>268716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,25 +5367,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>521</v>
+      </c>
+      <c r="D23" s="7">
+        <v>359201</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
         <v>504</v>
       </c>
-      <c r="D23" s="7">
-        <v>363346</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="7">
-        <v>521</v>
-      </c>
       <c r="I23" s="7">
-        <v>359201</v>
+        <v>363347</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -5405,7 +5414,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C6DDE-495E-4DF7-AEF5-EC9F3D3B3E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537EF6B9-101B-41FB-9576-BF219C1B1A8C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5441,7 +5450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5542,49 +5551,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>160</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>159</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,49 +5602,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24282</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
-        <v>17520</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>18477</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H5" s="7">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7">
-        <v>24619</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>42139</v>
+        <v>42759</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5665,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5680,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>68</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5704,49 @@
         <v>31</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5288</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
-        <v>6909</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>7007</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4361</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>11270</v>
+        <v>12295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,25 +5755,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
-      </c>
       <c r="I8" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -5779,7 +5788,7 @@
         <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
@@ -5799,49 +5808,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>900</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>846</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1364</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>2265</v>
+        <v>2086</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,10 +5859,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>246417</v>
+        <v>209864</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>421</v>
@@ -5865,10 +5874,10 @@
         <v>423</v>
       </c>
       <c r="H10" s="7">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="I10" s="7">
-        <v>214656</v>
+        <v>258109</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>424</v>
@@ -5883,7 +5892,7 @@
         <v>579</v>
       </c>
       <c r="N10" s="7">
-        <v>461074</v>
+        <v>467973</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>427</v>
@@ -5904,13 +5913,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1051</v>
+        <v>1287</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>431</v>
@@ -5919,31 +5928,31 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1276</v>
+        <v>1118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2327</v>
+        <v>2404</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,49 +5961,49 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7">
+        <v>50262</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="7">
         <v>75</v>
       </c>
-      <c r="D12" s="7">
-        <v>61824</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>62377</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H12" s="7">
-        <v>78</v>
-      </c>
-      <c r="I12" s="7">
-        <v>51994</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>113818</v>
+        <v>112639</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,25 +6012,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>368</v>
+      </c>
+      <c r="D13" s="7">
+        <v>262652</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
         <v>371</v>
       </c>
-      <c r="D13" s="7">
-        <v>310192</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>368</v>
-      </c>
       <c r="I13" s="7">
-        <v>269291</v>
+        <v>322449</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -6036,7 +6045,7 @@
         <v>739</v>
       </c>
       <c r="N13" s="7">
-        <v>579483</v>
+        <v>585101</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -6050,55 +6059,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>915</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>917</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,10 +6116,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7">
-        <v>102391</v>
+        <v>78726</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>447</v>
@@ -6122,10 +6131,10 @@
         <v>449</v>
       </c>
       <c r="H15" s="7">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I15" s="7">
-        <v>80658</v>
+        <v>107625</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>450</v>
@@ -6140,7 +6149,7 @@
         <v>250</v>
       </c>
       <c r="N15" s="7">
-        <v>183049</v>
+        <v>186351</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>453</v>
@@ -6161,46 +6170,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5124</v>
+        <v>3171</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3176</v>
+        <v>5239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>8300</v>
+        <v>8410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,49 +6218,49 @@
         <v>31</v>
       </c>
       <c r="C17" s="7">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17264</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H17" s="7">
         <v>27</v>
       </c>
-      <c r="D17" s="7">
-        <v>22127</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
       <c r="I17" s="7">
-        <v>17684</v>
+        <v>23081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>39811</v>
+        <v>40345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,25 +6269,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>150</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7">
         <v>167</v>
       </c>
-      <c r="D18" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7">
-        <v>150</v>
-      </c>
       <c r="I18" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -6293,7 +6302,7 @@
         <v>317</v>
       </c>
       <c r="N18" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>41</v>
@@ -6313,49 +6322,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2315</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
-        <v>900</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
       <c r="I19" s="7">
-        <v>2441</v>
+        <v>846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>3341</v>
+        <v>3161</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,49 +6373,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>434</v>
+      </c>
+      <c r="D20" s="7">
+        <v>312872</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H20" s="7">
         <v>449</v>
       </c>
-      <c r="D20" s="7">
-        <v>366328</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H20" s="7">
-        <v>434</v>
-      </c>
       <c r="I20" s="7">
-        <v>319933</v>
+        <v>384211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>883</v>
       </c>
       <c r="N20" s="7">
-        <v>686261</v>
+        <v>697082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,46 +6427,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>6175</v>
+        <v>4457</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>489</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>4452</v>
+        <v>6357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>10627</v>
+        <v>10814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,49 +6475,49 @@
         <v>31</v>
       </c>
       <c r="C22" s="7">
+        <v>108</v>
+      </c>
+      <c r="D22" s="7">
+        <v>72814</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="7">
         <v>111</v>
       </c>
-      <c r="D22" s="7">
-        <v>90860</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H22" s="7">
-        <v>108</v>
-      </c>
       <c r="I22" s="7">
-        <v>74039</v>
+        <v>92465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>164899</v>
+        <v>165279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,25 +6526,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>555</v>
+      </c>
+      <c r="D23" s="7">
+        <v>392458</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
         <v>569</v>
       </c>
-      <c r="D23" s="7">
-        <v>464263</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="7">
-        <v>555</v>
-      </c>
       <c r="I23" s="7">
-        <v>400865</v>
+        <v>483878</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -6550,7 +6559,7 @@
         <v>1124</v>
       </c>
       <c r="N23" s="7">
-        <v>865128</v>
+        <v>876336</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>41</v>
@@ -6564,7 +6573,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
